--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>46.05883</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65.9055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.56224</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02793</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.27691</v>
-      </c>
-      <c r="G2" t="n">
-        <v>95.21581999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.25446</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30.36367</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.09406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66.67998</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23.47231</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12.77491</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89.50369999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.91756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.71309</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>71.99352</v>
-      </c>
-      <c r="R2" t="n">
-        <v>34.27338</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>16.99088</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2253</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.24439</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.27755</v>
-      </c>
-      <c r="X2" t="n">
-        <v>21.98301</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>27.11912</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>81.09837</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29.11928</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>24.28773</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.77481</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1651.37247</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>178.02747</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.51367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>51.32451</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>89.56406</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>237.67725</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.81959</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>43.32825</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>84.85724999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41.54791</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>53.31959</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.18461</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>70.77851</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101.70957</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.14695</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.13408</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40.63507</v>
-      </c>
-      <c r="G3" t="n">
-        <v>170.09147</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.90467</v>
-      </c>
-      <c r="I3" t="n">
-        <v>54.14014</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.15846</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100.46331</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32.77382</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25.09528</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.16972</v>
-      </c>
-      <c r="O3" t="n">
-        <v>75.86627</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.65055</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>97.67666</v>
-      </c>
-      <c r="R3" t="n">
-        <v>62.56674</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.008160000000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>25.89514</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.5407</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.6587</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20.89342</v>
-      </c>
-      <c r="X3" t="n">
-        <v>34.35598</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>43.32189</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>127.13306</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>50.08801</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>33.71725</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.007889999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2741.0564</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>350.2053</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.20515</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>95.76893</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>141.60028</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>344.48221</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>14.58163</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>68.71916</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>141.24609</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>58.52301</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>94.62372999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10.51944</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>103.41745</v>
-      </c>
-      <c r="C4" t="n">
-        <v>148.50966</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.3865</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.30674</v>
-      </c>
-      <c r="F4" t="n">
-        <v>52.57363</v>
-      </c>
-      <c r="G4" t="n">
-        <v>244.27389</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42.35306</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80.54943</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.5128</v>
-      </c>
-      <c r="K4" t="n">
-        <v>147.72575</v>
-      </c>
-      <c r="L4" t="n">
-        <v>38.64755</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34.78614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>225.29094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>112.31916</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16.65279</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>128.12532</v>
-      </c>
-      <c r="R4" t="n">
-        <v>78.863</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>34.9072</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.04305</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.19848</v>
-      </c>
-      <c r="W4" t="n">
-        <v>39.29226</v>
-      </c>
-      <c r="X4" t="n">
-        <v>40.22578</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>64.37796</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>186.36451</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>64.04949999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>76.88284</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>3959.95171</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>531.36142</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.94302</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>131.82163</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>200.93353</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>478.70983</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22.82693</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>98.01324</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>201.72071</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>71.38697999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>162.99742</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19.60161</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
